--- a/admin/mappings/Foto_Mapping.xlsx
+++ b/admin/mappings/Foto_Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/Dropbox/TW Excel files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB7BAF-C7D6-5844-9D2D-6A5DCAA71069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20E3963-922B-154E-908C-B12851A170B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1200" yWindow="460" windowWidth="27600" windowHeight="16440" activeTab="1" xr2:uid="{63070529-74F9-B440-A77D-D92467CA050A}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -727,7 +727,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
